--- a/medicine/Mort/Décès_en_1933/Décès_en_1933.xlsx
+++ b/medicine/Mort/Décès_en_1933/Décès_en_1933.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1933</t>
+          <t>Décès_en_1933</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1933</t>
+          <t>Décès_en_1933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Raymond Allègre, peintre français (° 27 août 1857).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Raymond Allègre, peintre français (° 27 août 1857).
 Étienne Azambre, peintre français (° 2 février 1859).
 Auguste Félix Bauer, peintre d'histoire français (° 16 avril 1854).
 Alphonse Benquet, peintre et sculpteur français (° 1857).
@@ -541,9 +558,43 @@
 Émile Sartorius, footballeur français (° 1er avril 1933).
 Michel Simonidy, peintre, illustrateur, décorateur et affichiste roumain (° 8 mars 1870).
 Tamagno, peintre et affichiste italien (° 1851).
-Apollinaire Vasnetsov, peintre et critique d'art russe puis soviétique (° 1856).
-Janvier
-2 janvier : Jacques Carabain, peintre de paysages urbains belge d'origine néerlandaise (° 23 février 1834).
+Apollinaire Vasnetsov, peintre et critique d'art russe puis soviétique (° 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Jacques Carabain, peintre de paysages urbains belge d'origine néerlandaise (° 23 février 1834).
 3 janvier :
 Léon Cauvy, peintre français (° 12 janvier 1874).
 Camille Dufour, peintre français (° 8 février 1841).
@@ -557,18 +608,86 @@
 Adolphe Lalyre, peintre français (° 1er octobre 1848).
 27 janvier :
 Marcel Leprin, peintre français (° 12 février 1891).
-Carlo Petitti di Roreto, général et homme politique italien (° 18 décembre 1862).
-Février
-12 février : Henri Duparc, compositeur français (° 21 janvier 1848).
+Carlo Petitti di Roreto, général et homme politique italien (° 18 décembre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 février : Henri Duparc, compositeur français (° 21 janvier 1848).
 14 février : Julien t' Felt, peintre et illustrateur belge (° 14 novembre 1874).
 15 février : Pat Sullivan, dessinateur de bandes dessinées américain, créateur de Félix le Chat (° 1887).
 17 février :
 Paul Noël Lasseran, peintre, décorateur et poète français (° 1868).
 Julien Torma, écrivain, dramaturge et poète français (° 6 avril 1902).
 24 février : Théodore Haas, peintre animalier, illustrateur et enseignant français (° 8 février 1861).
-26 février : Spottiswoode Aitken, acteur de cinéma muet américain d'origine écossaise (° 16 avril 1868).
-Mars
-5 mars : Anastasia Golovina, médecin bulgare (° 17 octobre 1850).
+26 février : Spottiswoode Aitken, acteur de cinéma muet américain d'origine écossaise (° 16 avril 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Anastasia Golovina, médecin bulgare (° 17 octobre 1850).
 7 mars : David Koigen sociologue russo-allemand (° 28 septembre 1879).
 8 mars : Arthur Cantillon, écrivain et homme politique belge (° 31 mai 1893).
 12 mars : Georges Le Cadet, astronome français (° 1er février 1864).
@@ -579,9 +698,43 @@
 24 mars : Alfred William Alcock, naturaliste britannique (° 23 juin 1859).
 25 mars : Louis Sérendat de Belzim, peintre mauricien et français (° 26 juin 1854).
 27 mars : Lionel Palairet, joueur de cricket amateur anglais (° 27 mai 1870).
-31 mars : Charles Diéterle, peintre français (° 6 avril 1847).
-Avril
-2 avril : Paul Biensfeldt, acteur allemand (° 4 mars 1869).
+31 mars : Charles Diéterle, peintre français (° 6 avril 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Paul Biensfeldt, acteur allemand (° 4 mars 1869).
 4 avril : Ewald Straesser, compositeur et chef d'orchestre allemand (° 27 juin 1867).
 9 avril :
 Sigfrid Karg-Elert, pianiste, organiste et compositeur allemand (° 21 novembre 1877).
@@ -596,17 +749,85 @@
 29 avril :
 Théodore de Broutelles, peintre français (° 4 octobre 1842).
 Constantin Cavafy, poète grec d'Alexandrie (° 29 avril 1863).
-30 avril : Anna de Noailles, poétesse et romancière française (° 15 novembre 1876).
-Mai
-11 mai : John G. Adolfi, réalisateur américain (° 19 février 1888).
+30 avril : Anna de Noailles, poétesse et romancière française (° 15 novembre 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11 mai : John G. Adolfi, réalisateur américain (° 19 février 1888).
 21 mai : Adolphe Giraldon, peintre, illustrateur et décorateur français (° 4 mai 1855).
 22 mai :
 Ștefan Dimitrescu, peintre et dessinateur post-impressionniste roumain (° 18 janvier 1886).
 Sándor Ferenczi, psychanalyste  hongrois (° 16 juillet 1873).
 24 mai : Ludovic Arrachart, aviateur français (° 15 août 1897).
-27 mai : Léon Kamir Kaufmann, peintre polonais (° 8 juin 1872).
-Juin
-1er juin : Louis Leynia de La Jarrige, journaliste, peintre animalier et illustrateur de livres pour enfants français (° 5 juin 1873).
+27 mai : Léon Kamir Kaufmann, peintre polonais (° 8 juin 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Louis Leynia de La Jarrige, journaliste, peintre animalier et illustrateur de livres pour enfants français (° 5 juin 1873).
 5 juin : Étienne Bouillé, peintre français (° 12 avril 1858).
 6 juin : Alphonse Momas, écrivain français (° 1846).
 20 juin : Clara Zetkin, féministe et communiste allemande (° 5 juillet 1857).
@@ -617,9 +838,43 @@
 26 juin : José Francisco da Rocha Pombo, journaliste, avocat, homme politique, professeur, historien et écrivain brésilien (° 4 décembre 1857).
 29 juin :
 Roscoe « Fatty » Arbuckle, acteur et réalisateur américain (° 24 mars 1887).
-François Maury, peintre français (° 3 mars 1861).
-Juillet
-3 juillet :
+François Maury, peintre français (° 3 mars 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 juillet :
 Paul Mieille, professeur de langue anglaise et espérantiste français (° 11 juin 1859).
 Hipólito Yrigoyen, homme politique argentin (° 12 juillet 1852).
 6 juillet : Robert Kajanus, compositeur et chef d'orchestre finlandais (° 2 décembre 1856).
@@ -631,9 +886,43 @@
 31 juillet : Shimizu Shikin, romancière et activiste japonaise (° 11 janvier 1868).
 ? juillet
 Georges Busson, peintre français (° 28 février 1859).
-Adolphe Clary-Baroux, peintre français (° 1865).
-Août
-1er août : Sulejman Delvina, homme politique albanais (° 5 octobre 1884).
+Adolphe Clary-Baroux, peintre français (° 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Sulejman Delvina, homme politique albanais (° 5 octobre 1884).
 7 août : René Lelong, illustrateur et peintre français (° 1er avril 1871).
 10 août : Edmond Louis Dupain, peintre français (° 13 juillet 1847).
 13 août :
@@ -641,9 +930,43 @@
 Hasan Prishtina, homme politique albanais (° 1873).
 18 août : Étienne Couvert, peintre et graveur français (° 13 décembre 1856).
 19 août : Eugénie Guillou, religieuse, prostituée et proxénète française (° 13 septembre 1861).
-20 août : Gustaf Cederström, peintre suédois (° 12 avril 1845).
-Septembre
-3 septembre :
+20 août : Gustaf Cederström, peintre suédois (° 12 avril 1845).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3 septembre :
 George Mosson, peintre  et dessinateur franco-allemand (° 2 février 1851).
 Frédéric Soulacroix, peintre français (° 1er octobre 1858).
 8 septembre : François Martroye, historien franco-belge (° 1852).
@@ -661,9 +984,43 @@
 Alexander von Krobatin, maréchal et homme politique autrichien actif pendant la période austro-hongroise (° 12 septembre 1849).
 29 septembre :
 Victor Le Baube, peintre français (° 15 novembre 1859).
-Georges Lemaire, coureur cycliste belge (° 3 avril 1905).
-Octobre
-3 octobre : Raoul Carré,  peintre français (° 23 octobre 1868).
+Georges Lemaire, coureur cycliste belge (° 3 avril 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Raoul Carré,  peintre français (° 23 octobre 1868).
 4 octobre : Adolfo Tommasi, peintre italien (° 25 janvier 1851).
 6 octobre :
 Porter Dale, homme politique américain (° 1er mars 1867).
@@ -676,9 +1033,43 @@
 25 octobre : William John Bowser, premier ministre de la Colombie-Britannique (° 3 décembre 1867).
 26 octobre : José Malhoa, peintre portugais (° 28 avril 1855).
 27 octobre : Alceste Campriani, peintre italien (° 11 février 1848).
-30 octobre : Amédée Buffet,  peintre français (° 30 juillet 1869).
-Novembre
-5 novembre : Luna Drexlerówna, peintre et sculptrice polonaise (° 10 novembre 1882).
+30 octobre : Amédée Buffet,  peintre français (° 30 juillet 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5 novembre : Luna Drexlerówna, peintre et sculptrice polonaise (° 10 novembre 1882).
 7 novembre : Léon Barotte, peintre français (° 1866).
 8 novembre : Vittorio Matteo Corcos, peintre italien (° 4 octobre 1859).
 9 novembre :
@@ -695,9 +1086,43 @@
 Albert Dagnaux, peintre français (° 10 juillet 1861).
 Mahmoud Tarzi, intellectuel, journaliste et homme politique afghan (° 23 août 1865).
 29 novembre : Nikka Vonen, folkloriste, femme de lettres et enseignante norvégienne (° 14 novembre 1936).
-30 novembre : Arthur Currie, général de l'armée canadienne (° 5 décembre 1875).
-Décembre
-2 décembre : Clarence Burton, acteur américain (° 10 mai 1882).
+30 novembre : Arthur Currie, général de l'armée canadienne (° 5 décembre 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1933</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1933</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Clarence Burton, acteur américain (° 10 mai 1882).
 6 décembre :
 Auguste Chapuis, compositeur, organiste, et professeur français (° 1858).
 Eugène Deully, peintre français et conservateur général des musées de Lille (° 16 novembre 1860).
